--- a/DOC/Planificacion/Backlog del Producto.xlsx
+++ b/DOC/Planificacion/Backlog del Producto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10 ciclo\Taller de proyec 2\Semana 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30846FB4-0088-487A-94DC-5B2EDF727DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E807BD5-3532-4C95-9699-E82413EE8989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog del Producto" sheetId="8" r:id="rId1"/>
@@ -31,13 +31,13 @@
     <definedName name="PBCurrentBottom">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="PBTrend">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="PlannedSpeed">OFFSET(#REF!,1,0,#REF!,1)</definedName>
-    <definedName name="ProductBacklog">'Backlog del Producto'!$B$5:$P$196</definedName>
+    <definedName name="ProductBacklog">'Backlog del Producto'!$B$5:$P$197</definedName>
     <definedName name="RealizedSpeed">OFFSET(#REF!,1,0,#REF!,1)</definedName>
-    <definedName name="Sprint">'Backlog del Producto'!$N$7:$N$196</definedName>
+    <definedName name="Sprint">'Backlog del Producto'!$N$7:$N$197</definedName>
     <definedName name="SprintCount">#REF!</definedName>
     <definedName name="SprintsInTrend">#REF!</definedName>
     <definedName name="SprintTasks">#REF!</definedName>
-    <definedName name="Status">'Backlog del Producto'!$O$7:$O$196</definedName>
+    <definedName name="Status">'Backlog del Producto'!$O$7:$O$197</definedName>
     <definedName name="StoryName">'Backlog del Producto'!#REF!</definedName>
     <definedName name="TaskRows">#REF!</definedName>
     <definedName name="TaskStatus">#REF!</definedName>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="144">
   <si>
     <t>Sprint</t>
   </si>
@@ -588,9 +588,6 @@
 Los cambios no deben de afectar la configuración individual del usuario.</t>
   </si>
   <si>
-    <t>HU01 - HU03</t>
-  </si>
-  <si>
     <t>Establecer las funcionalidades básicas del perfil de usuario.</t>
   </si>
   <si>
@@ -623,6 +620,22 @@
   <si>
     <t>Notificaciones en la plataforma sobre nuevas funciones disponibles.
 Sección de "Novedades" siempre visible y actualizada.</t>
+  </si>
+  <si>
+    <t>Implementar la visualización de rutinas personalizadas</t>
+  </si>
+  <si>
+    <t>Mostrar diferentes opciones de rutinas a los usuarios según su nivel y objetivo</t>
+  </si>
+  <si>
+    <t>Diseñar y desarrollar una sección con tarjetas que incluyan el nombre de la rutina,.
+Asegurar que el botón "Ver Rutina" redirija correctamente a una página detallada con los ejercicios específicos de cada rutina.</t>
+  </si>
+  <si>
+    <t>HU17</t>
+  </si>
+  <si>
+    <t>HU01 - HU04</t>
   </si>
 </sst>
 </file>
@@ -925,6 +938,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -957,37 +973,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1626,34 +1617,34 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S86"/>
+  <dimension ref="B1:S87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="48" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="56.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="53.109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="53.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="5" customWidth="1"/>
     <col min="12" max="13" width="15" style="5" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="39.5546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="39.5703125" style="4" customWidth="1"/>
     <col min="17" max="17" width="6" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="6"/>
+    <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="18" x14ac:dyDescent="0.2">
       <c r="B1" s="29" t="s">
         <v>23</v>
       </c>
@@ -1665,15 +1656,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -1691,15 +1682,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="2:19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
@@ -1717,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1739,30 +1730,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="49"/>
-    </row>
-    <row r="6" spans="2:19" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="50"/>
+    </row>
+    <row r="6" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="31" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="51" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>43</v>
       </c>
@@ -1832,7 +1823,7 @@
         <v>87</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>117</v>
@@ -1852,7 +1843,7 @@
       </c>
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="2:19" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -1861,22 +1852,22 @@
         <v>32</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>88</v>
+        <v>38</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>139</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="K8" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>31</v>
@@ -1885,60 +1876,60 @@
         <v>1</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="2:19" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>40</v>
-      </c>
+    <row r="9" spans="2:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="8">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="N9" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="2:19" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+    <row r="10" spans="2:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" s="38" t="s">
         <v>34</v>
       </c>
@@ -1946,44 +1937,36 @@
         <v>77</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K10" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L10" s="8">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N10" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="2:19" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>65</v>
-      </c>
+    <row r="11" spans="2:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
         <v>51</v>
       </c>
@@ -1991,58 +1974,66 @@
         <v>77</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K11" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="8">
-        <v>20</v>
-      </c>
-      <c r="M11" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="N11" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="2:19" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+    <row r="12" spans="2:19" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>65</v>
+      </c>
       <c r="F12" s="38" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K12" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L12" s="8">
         <v>20</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="M12" s="8"/>
       <c r="N12" s="8">
         <v>2</v>
       </c>
@@ -2051,324 +2042,324 @@
       </c>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="2:19" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>66</v>
-      </c>
+    <row r="13" spans="2:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="38" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K13" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" s="8">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="N13" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="2:19" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+    <row r="14" spans="2:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>66</v>
+      </c>
       <c r="F14" s="38" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K14" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L14" s="8">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="N14" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="2:19" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>69</v>
-      </c>
+    <row r="15" spans="2:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
       <c r="F15" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>123</v>
+      <c r="G15" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="K15" s="8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L15" s="8">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N15" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="2:19" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+    <row r="16" spans="2:19" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="F16" s="38" t="s">
         <v>56</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="K16" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" s="8">
         <v>20</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N16" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="2:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>71</v>
-      </c>
+    <row r="17" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="38" t="s">
         <v>57</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K17" s="8">
+        <v>9</v>
+      </c>
+      <c r="L17" s="8">
+        <v>20</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="8">
         <v>4</v>
-      </c>
-      <c r="L17" s="8">
-        <v>24</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="N17" s="8">
-        <v>3</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="2:16" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+    <row r="18" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="F18" s="38" t="s">
         <v>58</v>
       </c>
       <c r="G18" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L18" s="8">
         <v>24</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="N18" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="2:16" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>73</v>
-      </c>
+    <row r="19" spans="2:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="38" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K19" s="8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L19" s="8">
-        <v>20</v>
-      </c>
-      <c r="M19" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="N19" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="2:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
+    <row r="20" spans="2:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="F20" s="38" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="39" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="K20" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L20" s="8">
         <v>20</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="M20" s="8"/>
       <c r="N20" s="8">
         <v>5</v>
       </c>
@@ -2377,41 +2368,35 @@
       </c>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="2:16" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>75</v>
-      </c>
+    <row r="21" spans="2:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
       <c r="F21" s="38" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K21" s="8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L21" s="8">
-        <v>42</v>
-      </c>
-      <c r="M21" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="N21" s="8">
         <v>5</v>
       </c>
@@ -2420,35 +2405,41 @@
       </c>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="2:16" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+    <row r="22" spans="2:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="F22" s="38" t="s">
         <v>62</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I22" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="K22" s="8">
-        <v>9</v>
-      </c>
-      <c r="L22" s="5">
-        <v>20</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L22" s="8">
+        <v>42</v>
+      </c>
+      <c r="M22" s="8"/>
       <c r="N22" s="8">
         <v>5</v>
       </c>
@@ -2457,24 +2448,44 @@
       </c>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="F23" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="8">
+        <v>9</v>
+      </c>
+      <c r="L23" s="5">
+        <v>20</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="8">
+        <v>5</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
@@ -2491,7 +2502,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
@@ -2508,7 +2519,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -2525,7 +2536,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
@@ -2542,7 +2553,7 @@
       <c r="O27" s="8"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
@@ -2559,7 +2570,7 @@
       <c r="O28" s="8"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
@@ -2576,7 +2587,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
@@ -2593,7 +2604,7 @@
       <c r="O30" s="8"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
@@ -2610,12 +2621,12 @@
       <c r="O31" s="8"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="38"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
@@ -2627,12 +2638,12 @@
       <c r="O32" s="8"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
@@ -2644,7 +2655,7 @@
       <c r="O33" s="8"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
@@ -2661,7 +2672,7 @@
       <c r="O34" s="8"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
@@ -2678,7 +2689,7 @@
       <c r="O35" s="8"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
@@ -2695,7 +2706,7 @@
       <c r="O36" s="8"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -2712,7 +2723,7 @@
       <c r="O37" s="8"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
@@ -2729,7 +2740,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
@@ -2746,7 +2757,7 @@
       <c r="O39" s="8"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -2763,7 +2774,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
@@ -2780,7 +2791,7 @@
       <c r="O41" s="8"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
@@ -2797,7 +2808,7 @@
       <c r="O42" s="8"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
@@ -2814,7 +2825,7 @@
       <c r="O43" s="8"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
@@ -2831,7 +2842,7 @@
       <c r="O44" s="8"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
@@ -2848,7 +2859,7 @@
       <c r="O45" s="8"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -2865,7 +2876,7 @@
       <c r="O46" s="8"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
@@ -2882,7 +2893,7 @@
       <c r="O47" s="8"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
@@ -2899,7 +2910,7 @@
       <c r="O48" s="8"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
@@ -2916,7 +2927,7 @@
       <c r="O49" s="8"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
@@ -2933,7 +2944,7 @@
       <c r="O50" s="8"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
@@ -2950,7 +2961,7 @@
       <c r="O51" s="8"/>
       <c r="P51" s="9"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
@@ -2967,7 +2978,7 @@
       <c r="O52" s="8"/>
       <c r="P52" s="9"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
@@ -2984,7 +2995,7 @@
       <c r="O53" s="8"/>
       <c r="P53" s="9"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
@@ -3001,7 +3012,7 @@
       <c r="O54" s="8"/>
       <c r="P54" s="9"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
@@ -3018,7 +3029,7 @@
       <c r="O55" s="8"/>
       <c r="P55" s="9"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
@@ -3035,7 +3046,7 @@
       <c r="O56" s="8"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
@@ -3052,30 +3063,47 @@
       <c r="O57" s="8"/>
       <c r="P57" s="9"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P75" s="7"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="9"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="76" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P76" s="7"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3088,125 +3116,112 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B7:P15 B16:I17 K16:P17 B18:P18 B19:I19 K19:P19 B20:P21 B24:P131 B22:K23 M22:P23">
-    <cfRule type="expression" dxfId="36" priority="32" stopIfTrue="1">
+  <conditionalFormatting sqref="B7:P8 G9:P16 B9:F23 G17:I18 K17:P18 G19:P19 G20:I20 K20:P20 G21:P22 G23:K23 M23:P24 B24:K24 B25:P132">
+    <cfRule type="expression" dxfId="33" priority="32" stopIfTrue="1">
       <formula>$O7="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
       <formula>$O7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:P15 B16:I17 K16:P17 B18:P18 B19:I19 K19:P19 B20:P21 B24:P131 B22:K23 M22:P23">
-    <cfRule type="expression" dxfId="34" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="B25:P132 B7:P8 G9:P16 B9:F23 G17:I18 K17:P18 G19:P19 G20:I20 K20:P20 G21:P22 G23:K23 M23:P24 B24:K24">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>$O7="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7 I7">
-    <cfRule type="expression" dxfId="33" priority="87" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:I8 G7:G9">
+    <cfRule type="expression" dxfId="30" priority="87" stopIfTrue="1">
       <formula>#REF!="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="88" stopIfTrue="1">
       <formula>#REF!="Eliminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="90" stopIfTrue="1">
       <formula>#REF!="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="30" priority="99" stopIfTrue="1">
-      <formula>#REF!="En Progreso"</formula>
+  <conditionalFormatting sqref="J19:J20">
+    <cfRule type="expression" dxfId="27" priority="105" stopIfTrue="1">
+      <formula>$O17="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="100" stopIfTrue="1">
-      <formula>#REF!="Eliminado"</formula>
+    <cfRule type="expression" dxfId="26" priority="106" stopIfTrue="1">
+      <formula>$O17="Eliminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="102" stopIfTrue="1">
-      <formula>#REF!="Terminado"</formula>
+    <cfRule type="expression" dxfId="25" priority="108" stopIfTrue="1">
+      <formula>$O17="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J19">
-    <cfRule type="expression" dxfId="27" priority="105" stopIfTrue="1">
-      <formula>$O16="En Progreso"</formula>
+  <conditionalFormatting sqref="L24">
+    <cfRule type="expression" dxfId="24" priority="111" stopIfTrue="1">
+      <formula>$O23="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="106" stopIfTrue="1">
-      <formula>$O16="Eliminado"</formula>
+    <cfRule type="expression" dxfId="23" priority="112" stopIfTrue="1">
+      <formula>$O23="Eliminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="108" stopIfTrue="1">
-      <formula>$O16="Terminado"</formula>
+    <cfRule type="expression" dxfId="22" priority="114" stopIfTrue="1">
+      <formula>$O23="Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P30">
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="P31">
+    <cfRule type="expression" dxfId="21" priority="28" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P75:P76">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+  <conditionalFormatting sqref="P76:P77">
+    <cfRule type="expression" dxfId="18" priority="25" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="26" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="27" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P86">
-    <cfRule type="expression" dxfId="18" priority="73" stopIfTrue="1">
-      <formula>$O76="Done"</formula>
+  <conditionalFormatting sqref="P87">
+    <cfRule type="expression" dxfId="15" priority="73" stopIfTrue="1">
+      <formula>$O77="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="74" stopIfTrue="1">
-      <formula>$O76="Ongoing"</formula>
+    <cfRule type="expression" dxfId="14" priority="74" stopIfTrue="1">
+      <formula>$O77="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="75" stopIfTrue="1">
-      <formula>$O76="Removed"</formula>
+    <cfRule type="expression" dxfId="13" priority="75" stopIfTrue="1">
+      <formula>$O77="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="expression" dxfId="15" priority="82" stopIfTrue="1">
-      <formula>$O9="Done"</formula>
+    <cfRule type="expression" dxfId="12" priority="82" stopIfTrue="1">
+      <formula>$O10="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="83" stopIfTrue="1">
-      <formula>$O9="In Progress"</formula>
+    <cfRule type="expression" dxfId="11" priority="83" stopIfTrue="1">
+      <formula>$O10="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="84" stopIfTrue="1">
-      <formula>$O9="Removed"</formula>
+    <cfRule type="expression" dxfId="10" priority="84" stopIfTrue="1">
+      <formula>$O10="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="12" priority="79" stopIfTrue="1">
-      <formula>$O13="Done"</formula>
+    <cfRule type="expression" dxfId="9" priority="79" stopIfTrue="1">
+      <formula>$O14="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="80" stopIfTrue="1">
-      <formula>$O13="In Progress"</formula>
+    <cfRule type="expression" dxfId="8" priority="80" stopIfTrue="1">
+      <formula>$O14="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="81" stopIfTrue="1">
-      <formula>$O13="Removed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="2" priority="111" stopIfTrue="1">
-      <formula>$O22="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="112" stopIfTrue="1">
-      <formula>$O22="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="0" priority="114" stopIfTrue="1">
-      <formula>$O22="Terminado"</formula>
+    <cfRule type="expression" dxfId="7" priority="81" stopIfTrue="1">
+      <formula>$O14="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O87:O196 O6:O85" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O88:O197 O6:O86" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Por Hacer,En Progreso,Terminado,Eliminado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K57" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K58" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3226,22 +3241,22 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="22" style="2" customWidth="1"/>
-    <col min="9" max="9" width="59.109375" customWidth="1"/>
+    <col min="9" max="9" width="59.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -3268,7 +3283,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="17">
         <v>1</v>
       </c>
@@ -3283,18 +3298,18 @@
         <v>45550</v>
       </c>
       <c r="F3" s="17">
-        <f>IF(B3="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B3,'Backlog del Producto'!L$7:L$136))</f>
-        <v>44</v>
+        <f>IF(B3="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B3,'Backlog del Producto'!L$7:L$137))</f>
+        <v>52</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="I3" s="52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I3" s="41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B4" s="17">
         <v>2</v>
       </c>
@@ -3310,18 +3325,18 @@
         <v>45564</v>
       </c>
       <c r="F4" s="17">
-        <f>IF(B4="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B4,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B4="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B4,'Backlog del Producto'!L$7:L$137))</f>
         <v>82</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I4" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="17">
         <v>3</v>
       </c>
@@ -3337,18 +3352,18 @@
         <v>45578</v>
       </c>
       <c r="F5" s="17">
-        <f>IF(B5="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B5,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B5="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B5,'Backlog del Producto'!L$7:L$137))</f>
         <v>104</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I5" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="17">
         <v>4</v>
       </c>
@@ -3364,18 +3379,18 @@
         <v>45592</v>
       </c>
       <c r="F6" s="17">
-        <f>IF(B6="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B6,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B6="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B6,'Backlog del Producto'!L$7:L$137))</f>
         <v>108</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="20"/>
-      <c r="I6" s="52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="I6" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="17">
         <v>5</v>
       </c>
@@ -3391,18 +3406,18 @@
         <v>45606</v>
       </c>
       <c r="F7" s="17">
-        <f>IF(B7="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B7,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B7="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B7,'Backlog del Producto'!L$7:L$137))</f>
         <v>102</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
@@ -3412,7 +3427,7 @@
       <c r="H8" s="20"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="str">
         <f t="shared" ref="B9:B17" si="0">IF(AND(C9&lt;&gt;"",D9&lt;&gt;""),B8+1,"")</f>
         <v/>
@@ -3427,7 +3442,7 @@
         <v/>
       </c>
       <c r="F9" s="17" t="str">
-        <f>IF(B9="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B9,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B9="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B9,'Backlog del Producto'!L$7:L$137))</f>
         <v/>
       </c>
       <c r="G9" s="18" t="str">
@@ -3437,7 +3452,7 @@
       <c r="H9" s="20"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3452,7 +3467,7 @@
         <v/>
       </c>
       <c r="F10" s="17" t="str">
-        <f>IF(B10="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B10,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B10="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B10,'Backlog del Producto'!L$7:L$137))</f>
         <v/>
       </c>
       <c r="G10" s="18" t="str">
@@ -3462,7 +3477,7 @@
       <c r="H10" s="20"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3477,7 +3492,7 @@
         <v/>
       </c>
       <c r="F11" s="17" t="str">
-        <f>IF(B11="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B11,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B11="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B11,'Backlog del Producto'!L$7:L$137))</f>
         <v/>
       </c>
       <c r="G11" s="18" t="str">
@@ -3487,7 +3502,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3502,7 +3517,7 @@
         <v/>
       </c>
       <c r="F12" s="17" t="str">
-        <f>IF(B12="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B12,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B12="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B12,'Backlog del Producto'!L$7:L$137))</f>
         <v/>
       </c>
       <c r="G12" s="18" t="str">
@@ -3512,7 +3527,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3527,7 +3542,7 @@
         <v/>
       </c>
       <c r="F13" s="17" t="str">
-        <f>IF(B13="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B13,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B13="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B13,'Backlog del Producto'!L$7:L$137))</f>
         <v/>
       </c>
       <c r="G13" s="18" t="str">
@@ -3537,7 +3552,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3552,7 +3567,7 @@
         <v/>
       </c>
       <c r="F14" s="17" t="str">
-        <f>IF(B14="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B14,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B14="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B14,'Backlog del Producto'!L$7:L$137))</f>
         <v/>
       </c>
       <c r="G14" s="18" t="str">
@@ -3562,7 +3577,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3577,7 +3592,7 @@
         <v/>
       </c>
       <c r="F15" s="17" t="str">
-        <f>IF(B15="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B15,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B15="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B15,'Backlog del Producto'!L$7:L$137))</f>
         <v/>
       </c>
       <c r="G15" s="18" t="str">
@@ -3587,7 +3602,7 @@
       <c r="H15" s="20"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3602,7 +3617,7 @@
         <v/>
       </c>
       <c r="F16" s="17" t="str">
-        <f>IF(B16="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B16,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B16="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B16,'Backlog del Producto'!L$7:L$137))</f>
         <v/>
       </c>
       <c r="G16" s="18" t="str">
@@ -3612,7 +3627,7 @@
       <c r="H16" s="20"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3627,7 +3642,7 @@
         <v/>
       </c>
       <c r="F17" s="17" t="str">
-        <f>IF(B17="","",SUMIF('Backlog del Producto'!N$7:N$136,Sprints!B17,'Backlog del Producto'!L$7:L$136))</f>
+        <f>IF(B17="","",SUMIF('Backlog del Producto'!N$7:N$137,Sprints!B17,'Backlog del Producto'!L$7:L$137))</f>
         <v/>
       </c>
       <c r="G17" s="18" t="str">
@@ -3637,7 +3652,7 @@
       <c r="H17" s="20"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="14"/>
@@ -3645,7 +3660,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="17">
-        <f>SUMIF('Backlog del Producto'!N$7:N$136,"",'Backlog del Producto'!L$7:L$136)-SUMIF('Backlog del Producto'!O$7:O$136,"Eliminado",'Backlog del Producto'!L$7:L$136)</f>
+        <f>SUMIF('Backlog del Producto'!N$7:N$137,"",'Backlog del Producto'!L$7:L$137)-SUMIF('Backlog del Producto'!O$7:O$137,"Eliminado",'Backlog del Producto'!L$7:L$137)</f>
         <v>0</v>
       </c>
       <c r="G18" s="18"/>
@@ -3655,29 +3670,29 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:F17 H3:I17">
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>OR($G3="Planned",$G3="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
       <formula>$G18="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>$G18="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G17">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>$G3="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>$G3="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3693,6 +3708,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -3742,7 +3767,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3887,7 +3912,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3896,17 +3921,31 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -3914,7 +3953,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3932,34 +3971,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>